--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-185551.6061519499</v>
+        <v>-187439.1876683519</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>398.9705678927141</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>178.9312740321526</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>84.16790000022172</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.621576176023786</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>330.2954695596755</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>52.11411575496463</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>269.8854510154498</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>246.7422168027764</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>29.66892079222738</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>8.389005322401447</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>212.974575996688</v>
+        <v>85.42291167995879</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>142.7197497247934</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>164.3675597136116</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>157.3155121185902</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>88.91569202456274</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>177.5792881018518</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>122.6519788371597</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.8455358601903</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>144.0544470549666</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>77.92206006422785</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>72.33542890666803</v>
       </c>
       <c r="W31" t="n">
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3196,13 +3196,13 @@
         <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329076</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789532</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1783.124109094748</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C2" t="n">
-        <v>1414.161592154336</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1414.161592154336</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1028.373339556092</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2285.204253224348</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2285.204253224348</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.72394915887</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y2" t="n">
-        <v>2169.72394915887</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265796</v>
+        <v>539.7920585923321</v>
       </c>
       <c r="C4" t="n">
-        <v>285.8510101265796</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265796</v>
+        <v>721.4405234225718</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265796</v>
+        <v>721.4405234225718</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C5" t="n">
-        <v>940.7524019189439</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D5" t="n">
-        <v>940.7524019189439</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E5" t="n">
-        <v>554.9641493206996</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>433.7782227489724</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1465.195303554219</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C8" t="n">
-        <v>1465.195303554219</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1106.929604947469</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>721.1413523492245</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2182.212521640141</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.195303554219</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.195303554219</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X10" t="n">
-        <v>719.6552414565338</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035279</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035279</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>898.792518248837</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429502</v>
+        <v>955.1031435655743</v>
       </c>
       <c r="W13" t="n">
-        <v>644.1080300429502</v>
+        <v>665.6859735286138</v>
       </c>
       <c r="X13" t="n">
-        <v>428.9821957028613</v>
+        <v>579.400204154918</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.9821957028613</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515098</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>241.3784548186631</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>241.3784548186631</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>241.3784548186631</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655734</v>
+        <v>933.2366688293935</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286129</v>
+        <v>643.8194987924329</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>643.8194987924329</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>423.0269196489028</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.7814158330673</v>
+        <v>484.0375086983731</v>
       </c>
       <c r="C19" t="n">
-        <v>506.7814158330673</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5707,16 +5707,16 @@
         <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655736</v>
+        <v>955.1031435655734</v>
       </c>
       <c r="W19" t="n">
-        <v>665.685973528613</v>
+        <v>665.6859735286129</v>
       </c>
       <c r="X19" t="n">
-        <v>665.685973528613</v>
+        <v>665.6859735286129</v>
       </c>
       <c r="Y19" t="n">
-        <v>665.685973528613</v>
+        <v>665.6859735286129</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>582.2416896507652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471193</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>984.6827336245351</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>984.6827336245351</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W22" t="n">
-        <v>984.6827336245351</v>
+        <v>441.9005583181186</v>
       </c>
       <c r="X22" t="n">
-        <v>984.6827336245351</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>763.890154481005</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5996,10 +5996,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>988.9950526279307</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>820.0588697000237</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>820.0588697000237</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>672.1457761176306</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>525.2558286197202</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>357.0805069395408</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028586</v>
@@ -6154,43 +6154,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.002216560966</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>731.317728355079</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.787631771461</v>
+        <v>441.9005583181184</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.787631771461</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.9950526279307</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6309,19 +6309,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>841.7907383782456</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>672.8545554503387</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>672.8545554503387</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.231782352015</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>1023.439203208485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6546,19 +6546,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542179</v>
+        <v>565.3899630740202</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076817</v>
+        <v>452.2146454274842</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3571123076817</v>
+        <v>452.2146454274842</v>
       </c>
       <c r="E31" t="n">
-        <v>326.3571123076817</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="F31" t="n">
-        <v>326.3571123076817</v>
+        <v>360.0624171264619</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1262.194266857285</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818928</v>
+        <v>1028.537962101695</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652462</v>
+        <v>856.3092764850485</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030869</v>
+        <v>691.277562622889</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6920,43 +6920,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7020,16 +7020,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103132</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103132</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,22 +7397,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982975</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649692</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525398</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,31 +7825,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>199.6230805871081</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,13 +9006,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M27" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>12.73507939234918</v>
+        <v>140.2867437090784</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>3.714212921775726</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>61.34209567542555</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.5164680633471</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>78.33112907406512</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>108.6580642967255</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518775</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>64.30500338171994</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>2.068292507345795</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>2.379515591602564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338569</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>33.36825177059269</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>124.5989577886028</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>266838.5752058921</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295108</v>
       </c>
       <c r="F2" t="n">
         <v>254168.8888295108</v>
@@ -26329,31 +26329,31 @@
         <v>254168.8888295107</v>
       </c>
       <c r="H2" t="n">
-        <v>254168.8888295109</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="I2" t="n">
-        <v>254168.8888295109</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="J2" t="n">
         <v>254168.8888295107</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.3892744257</v>
+        <v>264434.389274426</v>
       </c>
       <c r="L2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="M2" t="n">
         <v>266838.5752058922</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.171927646024903e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26430,7 +26430,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26442,19 +26442,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563564</v>
+        <v>33210.29213563567</v>
       </c>
       <c r="L4" t="n">
+        <v>37464.4568627596</v>
+      </c>
+      <c r="M4" t="n">
         <v>37464.45686275959</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="O4" t="n">
         <v>37464.4568627596</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871661</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-562763.3403232844</v>
       </c>
       <c r="C6" t="n">
+        <v>27204.53889126013</v>
+      </c>
+      <c r="D6" t="n">
         <v>27204.53889126008</v>
       </c>
-      <c r="D6" t="n">
-        <v>27204.53889125999</v>
-      </c>
       <c r="E6" t="n">
-        <v>-378024.1432175412</v>
+        <v>-378121.6023435135</v>
       </c>
       <c r="F6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.434133383</v>
       </c>
       <c r="G6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.4341333829</v>
       </c>
       <c r="H6" t="n">
-        <v>147135.893259355</v>
+        <v>147038.4341333829</v>
       </c>
       <c r="I6" t="n">
-        <v>147135.8932593553</v>
+        <v>147038.4341333828</v>
       </c>
       <c r="J6" t="n">
-        <v>-29287.32593323798</v>
+        <v>-29384.78505921009</v>
       </c>
       <c r="K6" t="n">
-        <v>90433.28330572166</v>
+        <v>90414.78956778742</v>
       </c>
       <c r="L6" t="n">
         <v>121316.1057222403</v>
       </c>
       <c r="M6" t="n">
-        <v>-3142.002710729881</v>
+        <v>-3142.002710729983</v>
       </c>
       <c r="N6" t="n">
-        <v>131659.0125231073</v>
+        <v>131659.0125231072</v>
       </c>
       <c r="O6" t="n">
-        <v>131659.0125231071</v>
+        <v>131659.0125231072</v>
       </c>
       <c r="P6" t="n">
-        <v>87496.40722026149</v>
+        <v>87496.40722026151</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.714909557531129e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108353</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.714909557531129e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.90547784899735</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>37.51704632550516</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64.44757301799063</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>218.4135292820605</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>76.58057618203594</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>361.6700542658303</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>16.6375473211412</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>160.1338289389351</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>319.5720479251856</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>165.3712490426389</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>217.3206500666357</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-9.701276818911234e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28615,10 +28615,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,10 +35258,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058698</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>510.0474576375746</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187378</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556551</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556551</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M27" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
@@ -36692,7 +36692,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,10 +36926,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,10 +37871,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
